--- a/02_fastfood_chain_dataset_john_canero.xlsx
+++ b/02_fastfood_chain_dataset_john_canero.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caner\Downloads\16 Data Analytics\Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caner\Downloads\16 Data Analytics\02 Excel\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5B1E49-EDC9-4C13-88B3-DDA550FD57BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5584F4F4-7490-4B97-B0D8-9DB311F1297B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{D1FC2354-1431-294E-9D05-A71CF1B59C9B}"/>
   </bookViews>
@@ -28,7 +28,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1202,6 +1202,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" pivotButton="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1232,47 +1304,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1283,72 +1349,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" pivotButton="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1356,551 +1356,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{0CD8B2A8-DB45-4C19-8BF1-7AC1BB4A4279}"/>
   </cellStyles>
-  <dxfs count="161">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="2"/>
-        </left>
-        <right style="thin">
-          <color theme="2"/>
-        </right>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="2"/>
-        </left>
-        <right style="thin">
-          <color theme="2"/>
-        </right>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="2"/>
-        </left>
-        <right style="thin">
-          <color theme="2"/>
-        </right>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="2"/>
-        </left>
-        <right style="thin">
-          <color theme="2"/>
-        </right>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="2"/>
-        </left>
-        <right style="thin">
-          <color theme="2"/>
-        </right>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="2"/>
-        </left>
-        <right style="thin">
-          <color theme="2"/>
-        </right>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="145">
     <dxf>
       <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
     </dxf>
@@ -2557,6 +2013,338 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="2"/>
+        </left>
+        <right style="thin">
+          <color theme="2"/>
+        </right>
+        <top style="thin">
+          <color theme="2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="2"/>
+        </left>
+        <right style="thin">
+          <color theme="2"/>
+        </right>
+        <top style="thin">
+          <color theme="2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="2"/>
+        </left>
+        <right style="thin">
+          <color theme="2"/>
+        </right>
+        <top style="thin">
+          <color theme="2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="2"/>
+        </left>
+        <right style="thin">
+          <color theme="2"/>
+        </right>
+        <top style="thin">
+          <color theme="2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="2"/>
+        </left>
+        <right style="thin">
+          <color theme="2"/>
+        </right>
+        <top style="thin">
+          <color theme="2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="2"/>
+        </left>
+        <right style="thin">
+          <color theme="2"/>
+        </right>
+        <top style="thin">
+          <color theme="2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
     </dxf>
     <dxf>
@@ -3025,50 +2813,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -3910,9 +3654,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>447261</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>165651</xdr:rowOff>
+      <xdr:colOff>132522</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>124238</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="660124" cy="660124"/>
     <xdr:pic>
@@ -3942,7 +3686,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="737152" y="770281"/>
+          <a:off x="422413" y="331303"/>
           <a:ext cx="660124" cy="660124"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4004,7 +3748,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="13384789" y="4326082"/>
+              <a:off x="12803764" y="4326082"/>
               <a:ext cx="4931786" cy="3065317"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7422,370 +7166,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{54FF0D7B-D6FA-469C-AE46-E7CB2E671A89}" name="PivotTable11" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="C17:E21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="2" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="8"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of Revenue" fld="10" baseField="0" baseItem="0" numFmtId="164"/>
-    <dataField name="Percetange" fld="10" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <formats count="59">
-    <format dxfId="131">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="130">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="129">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="128">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="127">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="126">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="125">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="124">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="123">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="122">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="121">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="120">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="119">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="118">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="117">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="116">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="115">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="114">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="113">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="112">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="111">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="110">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="109">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="108">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="107">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="106">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="105">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="104">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="103">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="102">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="101">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="100">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="99">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="98">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="97">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="96">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="95">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="94">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="93">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="92">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="91">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="90">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="89">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="88">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="87">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="86">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="85">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="84">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="83">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="82">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="81">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="80">
-      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="79">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="33">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="32">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="30">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="28">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="26">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="24">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{48A3D367-6275-4BC5-B7A9-74EB1F7C8155}" name="PivotTable9" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Payment Method">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{48A3D367-6275-4BC5-B7A9-74EB1F7C8155}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Payment Method">
   <location ref="H19:J23" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -7840,7 +7221,7 @@
     <dataField name="Percetange" fld="10" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="10">
-    <format dxfId="135">
+    <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -7849,7 +7230,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="134">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -7858,10 +7239,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="133">
+    <format dxfId="52">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="132">
+    <format dxfId="51">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -7870,26 +7251,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="50">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="49">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="48">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="47">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -7912,8 +7293,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{13F9C696-821D-4E1C-963D-1130F7020CF7}" name="PivotTable8" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{13F9C696-821D-4E1C-963D-1130F7020CF7}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product">
   <location ref="H9:I15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -7976,36 +7357,36 @@
     <dataField name="Sum of Quanity" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="137">
+    <format dxfId="62">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="136">
+    <format dxfId="61">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="60">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="59">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="58">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="56">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="55">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -8021,8 +7402,371 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{54FF0D7B-D6FA-469C-AE46-E7CB2E671A89}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="C17:E21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="8"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Revenue" fld="10" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Percetange" fld="10" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <formats count="59">
+    <format dxfId="121">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="120">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="119">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="118">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="117">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="116">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="115">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="114">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="113">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="112">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="111">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="110">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="109">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="108">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="107">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="106">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="105">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="104">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="103">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="102">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="101">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="100">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="99">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="98">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="97">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="96">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="95">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="94">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="93">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="92">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="91">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="90">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="89">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="88">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="87">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="86">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="85">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="84">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="83">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="82">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="81">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="80">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="79">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="78">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="77">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="76">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="75">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="74">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="73">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="72">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="71">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="70">
+      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="69">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="68">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="67">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="66">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="65">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="64">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="63">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{122D7E8C-A10D-49F9-A5C4-1C510216207E}" name="Product" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{122D7E8C-A10D-49F9-A5C4-1C510216207E}" name="Product" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C10:D18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -8114,16 +7858,16 @@
     <dataField name="Sum of Revenue" fld="10" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="9">
-    <format dxfId="42">
+    <format dxfId="8">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="6">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -8132,10 +7876,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="5" count="1">
@@ -8147,7 +7891,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="0"/>
@@ -8160,10 +7904,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -8180,7 +7924,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E7F0AD62-D520-4B82-8651-9EE2E62C5DA1}" name="PivotTable4" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E7F0AD62-D520-4B82-8651-9EE2E62C5DA1}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F23:G31" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -8272,16 +8016,16 @@
     <dataField name="Sum of Revenue" fld="10" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="9">
-    <format dxfId="51">
+    <format dxfId="17">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="16">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="15">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -8290,10 +8034,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="5" count="1">
@@ -8305,7 +8049,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="0"/>
@@ -8318,10 +8062,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -8338,7 +8082,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{52D797C0-5544-4E68-934D-8D51D222BD88}" name="PivotTable3" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{52D797C0-5544-4E68-934D-8D51D222BD88}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C23:D31" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -8430,16 +8174,16 @@
     <dataField name="Sum of Revenue" fld="10" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="9">
-    <format dxfId="60">
+    <format dxfId="26">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="59">
+    <format dxfId="25">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="24">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="57">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -8448,10 +8192,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="56">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="5" count="1">
@@ -8463,7 +8207,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="54">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="0"/>
@@ -8476,10 +8220,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="18">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -8496,7 +8240,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F8814F4-7BBA-4CB9-94D0-C71009A39ED3}" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F8814F4-7BBA-4CB9-94D0-C71009A39ED3}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I10:J18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -8588,16 +8332,16 @@
     <dataField name="Sum of Revenue" fld="10" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="9">
-    <format dxfId="69">
+    <format dxfId="35">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="68">
+    <format dxfId="34">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="67">
+    <format dxfId="33">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="66">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -8606,10 +8350,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="64">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="5" count="1">
@@ -8621,7 +8365,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="63">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="0"/>
@@ -8634,10 +8378,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="62">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="61">
+    <format dxfId="27">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -8654,7 +8398,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1852BEEB-9951-43BE-8893-97160FF76010}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1852BEEB-9951-43BE-8893-97160FF76010}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F10:G18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -8746,16 +8490,16 @@
     <dataField name="Sum of Revenue" fld="10" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="9">
-    <format dxfId="78">
+    <format dxfId="44">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="77">
+    <format dxfId="43">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="76">
+    <format dxfId="42">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="75">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -8764,10 +8508,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="74">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="73">
+    <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="5" count="1">
@@ -8779,7 +8523,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="72">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="0"/>
@@ -8792,10 +8536,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="71">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="70">
+    <format dxfId="36">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -15357,24 +15101,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{940A6227-4450-40BD-8EEF-827493245834}" name="FastFood_Restaurant" displayName="FastFood_Restaurant" ref="B3:L257" totalsRowShown="0" headerRowDxfId="160" tableBorderDxfId="159">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{940A6227-4450-40BD-8EEF-827493245834}" name="FastFood_Restaurant" displayName="FastFood_Restaurant" ref="B3:L257" totalsRowShown="0" headerRowDxfId="144" tableBorderDxfId="143">
   <autoFilter ref="B3:L257" xr:uid="{940A6227-4450-40BD-8EEF-827493245834}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{19C46564-9834-4366-A16C-59AA7398B15A}" name="Order ID" dataDxfId="158"/>
-    <tableColumn id="2" xr3:uid="{D59332E7-5E0A-441B-8F32-E9E5B74A6FC2}" name="Date" dataDxfId="157"/>
+    <tableColumn id="1" xr3:uid="{19C46564-9834-4366-A16C-59AA7398B15A}" name="Order ID" dataDxfId="142"/>
+    <tableColumn id="2" xr3:uid="{D59332E7-5E0A-441B-8F32-E9E5B74A6FC2}" name="Date" dataDxfId="141"/>
     <tableColumn id="3" xr3:uid="{A9B0B824-9790-41D3-929B-20FEF23C4823}" name="Product"/>
-    <tableColumn id="4" xr3:uid="{21226121-4EA4-40E6-A9E9-CC38439334D5}" name="Price" dataDxfId="156"/>
-    <tableColumn id="5" xr3:uid="{0776A7B0-BFA0-4980-ACE7-A6112603F734}" name="Quanity" dataDxfId="155">
+    <tableColumn id="4" xr3:uid="{21226121-4EA4-40E6-A9E9-CC38439334D5}" name="Price" dataDxfId="140"/>
+    <tableColumn id="5" xr3:uid="{0776A7B0-BFA0-4980-ACE7-A6112603F734}" name="Quanity" dataDxfId="139">
       <calculatedColumnFormula>ROUNDUP(FastFood_Restaurant[[#This Row],[Quanity]], 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{552A562B-ED6B-4885-B502-79056BEBA322}" name="City" dataDxfId="154"/>
+    <tableColumn id="13" xr3:uid="{552A562B-ED6B-4885-B502-79056BEBA322}" name="City" dataDxfId="138"/>
     <tableColumn id="14" xr3:uid="{4BD8AE64-88E3-41A8-8400-A17A55A58FA4}" name="Country"/>
-    <tableColumn id="6" xr3:uid="{409DFEA9-65B2-421B-B8A3-F6D4858747BF}" name="Purchase Type" dataDxfId="153"/>
-    <tableColumn id="7" xr3:uid="{C928CEBE-255A-476F-B8FE-EC36095D92E6}" name="Payment Method" dataDxfId="152"/>
-    <tableColumn id="8" xr3:uid="{3971C9EC-D4C1-45DA-A474-2B6AD5F8A618}" name="Manager" dataDxfId="151">
+    <tableColumn id="6" xr3:uid="{409DFEA9-65B2-421B-B8A3-F6D4858747BF}" name="Purchase Type" dataDxfId="137"/>
+    <tableColumn id="7" xr3:uid="{C928CEBE-255A-476F-B8FE-EC36095D92E6}" name="Payment Method" dataDxfId="136"/>
+    <tableColumn id="8" xr3:uid="{3971C9EC-D4C1-45DA-A474-2B6AD5F8A618}" name="Manager" dataDxfId="135">
       <calculatedColumnFormula>TRIM(FastFood_Restaurant[[#This Row],[Manager]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{409C70C4-0171-4C3B-B2B3-C7D0AC5E2B91}" name="Revenue" dataDxfId="150">
+    <tableColumn id="17" xr3:uid="{409C70C4-0171-4C3B-B2B3-C7D0AC5E2B91}" name="Revenue" dataDxfId="134">
       <calculatedColumnFormula>FastFood_Restaurant[[#This Row],[Quanity]]*FastFood_Restaurant[[#This Row],[Price]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15383,22 +15127,22 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B4A81F28-D0CC-4D64-8050-67D525F403D7}" name="Table8" displayName="Table8" ref="O3:P17" totalsRowShown="0" headerRowDxfId="149" dataDxfId="147" headerRowBorderDxfId="148" tableBorderDxfId="146">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B4A81F28-D0CC-4D64-8050-67D525F403D7}" name="Table8" displayName="Table8" ref="O3:P17" totalsRowShown="0" headerRowDxfId="133" dataDxfId="131" headerRowBorderDxfId="132" tableBorderDxfId="130">
   <autoFilter ref="O3:P17" xr:uid="{B4A81F28-D0CC-4D64-8050-67D525F403D7}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5374529F-D1A9-483C-8AC2-C63CC8D507CD}" name="Summary" dataDxfId="145"/>
-    <tableColumn id="2" xr3:uid="{A2B98A9F-C14A-493D-BD69-5C9ABFD92E29}" name="Column" dataDxfId="144"/>
+    <tableColumn id="1" xr3:uid="{5374529F-D1A9-483C-8AC2-C63CC8D507CD}" name="Summary" dataDxfId="129"/>
+    <tableColumn id="2" xr3:uid="{A2B98A9F-C14A-493D-BD69-5C9ABFD92E29}" name="Column" dataDxfId="128"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{C6871115-342F-41A3-86D5-5A90CB197820}" name="Table9" displayName="Table9" ref="R3:S17" totalsRowShown="0" headerRowDxfId="143" dataDxfId="141" headerRowBorderDxfId="142" tableBorderDxfId="140">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{C6871115-342F-41A3-86D5-5A90CB197820}" name="Table9" displayName="Table9" ref="R3:S17" totalsRowShown="0" headerRowDxfId="127" dataDxfId="125" headerRowBorderDxfId="126" tableBorderDxfId="124">
   <autoFilter ref="R3:S17" xr:uid="{C6871115-342F-41A3-86D5-5A90CB197820}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{661E2A2C-D037-42DC-B287-727288B94D72}" name="Summary" dataDxfId="139"/>
-    <tableColumn id="2" xr3:uid="{A97086FE-E069-478A-814B-4A69287C75E9}" name="Column" dataDxfId="138"/>
+    <tableColumn id="1" xr3:uid="{661E2A2C-D037-42DC-B287-727288B94D72}" name="Summary" dataDxfId="123"/>
+    <tableColumn id="2" xr3:uid="{A97086FE-E069-478A-814B-4A69287C75E9}" name="Column" dataDxfId="122"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15715,130 +15459,130 @@
   <sheetData>
     <row r="1" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="94"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="84"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="86"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="97"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="84"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="86"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="97"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="84"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="86"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="97"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="84"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="86"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="97"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="84"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="86"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="97"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="84"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="86"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="97"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="84"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="86"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="97"/>
     </row>
     <row r="10" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="87"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="89"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="100"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="69"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="103"/>
     </row>
     <row r="12" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
       <c r="J12" s="35" t="s">
         <v>76</v>
       </c>
@@ -23536,27 +23280,27 @@
   <sheetData>
     <row r="1" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="76"/>
-      <c r="O2" s="72" t="s">
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="110"/>
+      <c r="O2" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="P2" s="73"/>
-      <c r="R2" s="72" t="s">
+      <c r="P2" s="107"/>
+      <c r="R2" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="S2" s="73"/>
+      <c r="S2" s="107"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
@@ -24412,13 +24156,13 @@
         <f>FastFood_Restaurant[[#This Row],[Quanity]]*FastFood_Restaurant[[#This Row],[Price]]</f>
         <v>2009.8999999999999</v>
       </c>
-      <c r="O21" s="74" t="s">
+      <c r="O21" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="P21" s="75"/>
-      <c r="Q21" s="75"/>
-      <c r="R21" s="75"/>
-      <c r="S21" s="76"/>
+      <c r="P21" s="109"/>
+      <c r="Q21" s="109"/>
+      <c r="R21" s="109"/>
+      <c r="S21" s="110"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
@@ -33043,187 +32787,187 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="111" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
     </row>
     <row r="8" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="93"/>
-      <c r="H8" s="109" t="s">
+      <c r="C8" s="124"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="125"/>
+      <c r="H8" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="I8" s="110"/>
+      <c r="I8" s="113"/>
     </row>
     <row r="9" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="94"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
       <c r="E9" s="31"/>
-      <c r="F9" s="95"/>
-      <c r="H9" s="111" t="s">
+      <c r="F9" s="68"/>
+      <c r="H9" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="112" t="s">
+      <c r="I9" s="79" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="96" t="s">
+      <c r="B10" s="69" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="97"/>
-      <c r="H10" s="113" t="s">
+      <c r="F10" s="70"/>
+      <c r="H10" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="114">
+      <c r="I10" s="81">
         <v>34534</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="99"/>
-      <c r="H11" s="115" t="s">
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="116"/>
+      <c r="H11" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="116">
+      <c r="I11" s="83">
         <v>29115</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="96" t="s">
+      <c r="B12" s="69" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="97"/>
-      <c r="H12" s="115" t="s">
+      <c r="F12" s="70"/>
+      <c r="H12" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="116">
+      <c r="I12" s="83">
         <v>25999</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="100">
+      <c r="B13" s="117">
         <v>117136</v>
       </c>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="101"/>
-      <c r="H13" s="115" t="s">
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="119"/>
+      <c r="H13" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="116">
+      <c r="I13" s="83">
         <v>16851</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="96" t="s">
+      <c r="B14" s="69" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="97"/>
-      <c r="H14" s="117" t="s">
+      <c r="F14" s="70"/>
+      <c r="H14" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="116">
+      <c r="I14" s="83">
         <v>10637</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="102"/>
+      <c r="B15" s="71"/>
       <c r="C15" s="29"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
-      <c r="F15" s="95"/>
-      <c r="H15" s="118" t="s">
+      <c r="F15" s="68"/>
+      <c r="H15" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="I15" s="119">
+      <c r="I15" s="86">
         <v>117136</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="103"/>
-      <c r="C16" s="77" t="s">
+      <c r="B16" s="72"/>
+      <c r="C16" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="78"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="95"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="68"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="103"/>
+      <c r="B17" s="72"/>
       <c r="C17" s="58" t="s">
         <v>67</v>
       </c>
@@ -33233,10 +32977,10 @@
       <c r="E17" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="95"/>
+      <c r="F17" s="68"/>
     </row>
     <row r="18" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="103"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="59" t="s">
         <v>28</v>
       </c>
@@ -33246,15 +32990,15 @@
       <c r="E18" s="56">
         <v>0.29921300683974567</v>
       </c>
-      <c r="F18" s="95"/>
-      <c r="H18" s="109" t="s">
+      <c r="F18" s="68"/>
+      <c r="H18" s="112" t="s">
         <v>35</v>
       </c>
       <c r="I18" s="120"/>
-      <c r="J18" s="110"/>
+      <c r="J18" s="113"/>
     </row>
     <row r="19" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="103"/>
+      <c r="B19" s="72"/>
       <c r="C19" s="60" t="s">
         <v>19</v>
       </c>
@@ -33264,19 +33008,19 @@
       <c r="E19" s="54">
         <v>0.49820622621754695</v>
       </c>
-      <c r="F19" s="95"/>
-      <c r="H19" s="111" t="s">
+      <c r="F19" s="68"/>
+      <c r="H19" s="78" t="s">
         <v>6</v>
       </c>
       <c r="I19" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="J19" s="121" t="s">
+      <c r="J19" s="87" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="104"/>
+      <c r="B20" s="73"/>
       <c r="C20" s="61" t="s">
         <v>11</v>
       </c>
@@ -33286,19 +33030,19 @@
       <c r="E20" s="54">
         <v>0.20258076694270724</v>
       </c>
-      <c r="F20" s="105"/>
-      <c r="H20" s="113" t="s">
+      <c r="F20" s="74"/>
+      <c r="H20" s="80" t="s">
         <v>28</v>
       </c>
       <c r="I20" s="52">
         <v>264781.8600000001</v>
       </c>
-      <c r="J20" s="122">
+      <c r="J20" s="88">
         <v>0.29921300683974567</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="104"/>
+      <c r="B21" s="73"/>
       <c r="C21" s="62" t="s">
         <v>68</v>
       </c>
@@ -33308,46 +33052,46 @@
       <c r="E21" s="37">
         <v>1</v>
       </c>
-      <c r="F21" s="105"/>
-      <c r="H21" s="115" t="s">
+      <c r="F21" s="74"/>
+      <c r="H21" s="82" t="s">
         <v>19</v>
       </c>
       <c r="I21" s="53">
         <v>440876.46000000014</v>
       </c>
-      <c r="J21" s="123">
+      <c r="J21" s="89">
         <v>0.49820622621754695</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="104"/>
+      <c r="B22" s="73"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
-      <c r="F22" s="105"/>
-      <c r="H22" s="117" t="s">
+      <c r="F22" s="74"/>
+      <c r="H22" s="84" t="s">
         <v>11</v>
       </c>
       <c r="I22" s="53">
         <v>179269.32</v>
       </c>
-      <c r="J22" s="123">
+      <c r="J22" s="89">
         <v>0.20258076694270724</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="106"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="108"/>
-      <c r="H23" s="118" t="s">
+      <c r="B23" s="75"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="77"/>
+      <c r="H23" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="I23" s="124">
+      <c r="I23" s="90">
         <v>884927.64000000036</v>
       </c>
-      <c r="J23" s="125">
+      <c r="J23" s="91">
         <v>1</v>
       </c>
     </row>
@@ -33388,61 +33132,61 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="111" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
     </row>
     <row r="7" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
